--- a/data/brandsonmove_app.xlsx
+++ b/data/brandsonmove_app.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeProjects\Brandsonmove-API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D14B9-5853-4C06-936E-7245AE457AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D470D-7C0C-4776-A4D5-840C8D638C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userRole" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="managecontactinfos" sheetId="3" r:id="rId3"/>
+    <sheet name="meetinglinks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -62,12 +64,6 @@
     <t>gaja@gmail.com</t>
   </si>
   <si>
-    <t>Sagar</t>
-  </si>
-  <si>
-    <t>sagar@gmail.com</t>
-  </si>
-  <si>
     <t>admin@123</t>
   </si>
   <si>
@@ -75,6 +71,54 @@
   </si>
   <si>
     <t>phone_number</t>
+  </si>
+  <si>
+    <t>ranjitha@gmail.com</t>
+  </si>
+  <si>
+    <t>Ranjitha</t>
+  </si>
+  <si>
+    <t>alternate_phone_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>info@mysite.com</t>
+  </si>
+  <si>
+    <t>Plot 124, Parsik Hill, Sector 26-27, CBD, Belapur, Navi Mumbai</t>
+  </si>
+  <si>
+    <t>meeting_type</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>pass_code</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>https://us04web.zoom.us/j/4939553126?pwd=QWlUY1N2ZEpPVm9wYW45WVdDUDZVQT09</t>
+  </si>
+  <si>
+    <t>vbW5KB</t>
+  </si>
+  <si>
+    <t>msteams</t>
+  </si>
+  <si>
+    <t>https://teams.live.com/meet/9549655741271?p=BsBjULejp9xnIOeN</t>
+  </si>
+  <si>
+    <t>googlemeet</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/ykk-zwzx-dkb</t>
   </si>
 </sst>
 </file>
@@ -463,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -480,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -506,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -517,16 +561,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>7981581943</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -538,4 +582,117 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA152E4B-DF9E-40DF-8E23-AC0F772DF432}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>9987123429</v>
+      </c>
+      <c r="B2">
+        <v>8890762231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BB2B5-F655-4EA3-B1D3-16A3E4C1FA98}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="117.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/brandsonmove_app.xlsx
+++ b/data/brandsonmove_app.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeProjects\Brandsonmove-API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D470D-7C0C-4776-A4D5-840C8D638C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B80C4-30EE-481F-A701-05364202CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userRole" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="managecontactinfos" sheetId="3" r:id="rId3"/>
-    <sheet name="meetinglinks" sheetId="4" r:id="rId4"/>
+    <sheet name="contents" sheetId="5" r:id="rId4"/>
+    <sheet name="meetinglinks" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +120,36 @@
   </si>
   <si>
     <t>https://meet.google.com/ykk-zwzx-dkb</t>
+  </si>
+  <si>
+    <t>Hans_New_Delhi_05-12-2023.pdf</t>
+  </si>
+  <si>
+    <t>heading1</t>
+  </si>
+  <si>
+    <t>heading2</t>
+  </si>
+  <si>
+    <t>heading3</t>
+  </si>
+  <si>
+    <t>paragraph_content</t>
+  </si>
+  <si>
+    <t>attachment_file</t>
+  </si>
+  <si>
+    <t>Categories that grew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponentially in last 18 months … </t>
+  </si>
+  <si>
+    <t>other than sanitizers</t>
+  </si>
+  <si>
+    <t>Nail Polish, Facials, Chocolates and Grated Cheese are some of the categories which expanded over 200% - a growth rate unprecedented ever since the launch of first products in these categories after WW II. Experts believe ….</t>
   </si>
 </sst>
 </file>
@@ -588,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA152E4B-DF9E-40DF-8E23-AC0F772DF432}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -635,6 +666,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32BF41-8ACA-40CE-AA8E-75AB911F33DF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181BB2B5-F655-4EA3-B1D3-16A3E4C1FA98}">
   <dimension ref="A1:C4"/>
   <sheetViews>
